--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_UTL.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_UTL.XLSX
@@ -159,6 +159,9 @@
     <t>JOSE ROBERTO DOS S. CALDEIRA</t>
   </si>
   <si>
+    <t>RONEI CORDEIRO REIS</t>
+  </si>
+  <si>
     <t>GUTEMBERG VOLOTAO DE LIMA</t>
   </si>
   <si>
@@ -237,9 +240,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>732</t>
   </si>
   <si>
@@ -249,6 +249,9 @@
     <t>2827</t>
   </si>
   <si>
+    <t>2905</t>
+  </si>
+  <si>
     <t>3032</t>
   </si>
   <si>
@@ -292,9 +295,6 @@
   </si>
   <si>
     <t>4185</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_UTL.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_UTL.XLSX
@@ -180,9 +180,6 @@
     <t>OZEIAS DE FREITAS M FILHO</t>
   </si>
   <si>
-    <t>ALINE SANTOS MESQUITA</t>
-  </si>
-  <si>
     <t>JOSE CARLOS NUNES RODRIGUES</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>732</t>
   </si>
   <si>
@@ -270,9 +270,6 @@
     <t>3369</t>
   </si>
   <si>
-    <t>3666</t>
-  </si>
-  <si>
     <t>3724</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>4185</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_UTL.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPM_UTL.XLSX
@@ -150,9 +150,6 @@
     <t>IQ-DOC</t>
   </si>
   <si>
-    <t>LUIZ A G DE SOUZA</t>
-  </si>
-  <si>
     <t>OTAVIO GARCIA R. FILHO</t>
   </si>
   <si>
@@ -240,7 +237,7 @@
     <t> </t>
   </si>
   <si>
-    <t>732</t>
+    <t> </t>
   </si>
   <si>
     <t>2512</t>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>4185</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
